--- a/uploads/Conditions Precedent to be satisfied on or before  May 29, 2013.xlsx
+++ b/uploads/Conditions Precedent to be satisfied on or before  May 29, 2013.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="75" windowWidth="12240" windowHeight="7995"/>
+    <workbookView xWindow="240" yWindow="75" windowWidth="20055" windowHeight="7935"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -419,67 +419,13 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="27">
   <si>
+    <t>Conditions Precedents to be satisfied</t>
+  </si>
+  <si>
     <t>Required actions or operation</t>
   </si>
   <si>
-    <t xml:space="preserve">Update the actual Feasibility Study </t>
-  </si>
-  <si>
-    <t>File the updated Feasibility Study with the Ministry of Mines (section 47 of the Mining Code)</t>
-  </si>
-  <si>
     <t>Date for compliance (time frame, deadline)</t>
-  </si>
-  <si>
-    <t>Person in charge of action (CamIron/Sundance)</t>
-  </si>
-  <si>
-    <t>Due date for action</t>
-  </si>
-  <si>
-    <t>Status</t>
-  </si>
-  <si>
-    <t>Authority accountable
- for compliance 
-(State)</t>
-  </si>
-  <si>
-    <t>Input (information and documents required for compliance)</t>
-  </si>
-  <si>
-    <t>Output (deliverable resulting from compliance)</t>
-  </si>
-  <si>
-    <t>Risk/sanction</t>
-  </si>
-  <si>
-    <t>Comments</t>
-  </si>
-  <si>
-    <t>Cam Iron</t>
-  </si>
-  <si>
-    <t>State</t>
-  </si>
-  <si>
-    <t>Notification of such update to be made to i) the General Secretary Office of the Prime Minister and to ii) the Ministry of Industry, Mines and Technological Development, with copy to i) The State Project Committee and to ii) Patton Boggs LLP in accordance with article 64 of the Convention.</t>
-  </si>
-  <si>
-    <t>Pending</t>
-  </si>
-  <si>
-    <t>Updated Feasibility Study including an update of the Project Economic Model and, if necessary, of the Environmental Impact Study;
-  Aknowlegment receipt from the General Secretary of the Prime Minister and from the Ministry of Industry, Mines and Technological Development, of the notification of satisfaction of the Condition Precedent</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The State shall have no obligation to present  the Enabling Law to the Parliament  if this condition is not satisfied at the date for compliance </t>
-  </si>
-  <si>
-    <t>Conditions Precedents to be satisfied</t>
-  </si>
-  <si>
-    <t>Sundance / CAM IRON</t>
   </si>
   <si>
     <r>
@@ -504,6 +450,38 @@
       </rPr>
       <t>accountable for compliance</t>
     </r>
+  </si>
+  <si>
+    <t>Person in charge of action (CamIron/Sundance)</t>
+  </si>
+  <si>
+    <t>Due date for action</t>
+  </si>
+  <si>
+    <t>Authority accountable
+ for compliance 
+(State)</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Input (information and documents required for compliance)</t>
+  </si>
+  <si>
+    <t>Output (deliverable resulting from compliance)</t>
+  </si>
+  <si>
+    <t>Risk/sanction</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>Cam Iron</t>
+  </si>
+  <si>
+    <t>State</t>
   </si>
   <si>
     <r>
@@ -541,16 +519,38 @@
     </r>
   </si>
   <si>
+    <t xml:space="preserve">Update the actual Feasibility Study </t>
+  </si>
+  <si>
     <t>May 29, 2013</t>
   </si>
   <si>
+    <t>Sundance / CAM IRON</t>
+  </si>
+  <si>
     <t>Sundance CFO</t>
   </si>
   <si>
+    <t>Pending</t>
+  </si>
+  <si>
     <t>The first Feasibility Study presented to the Government of Cameroon on April 15, 2011 /  Independant reserve statement on the changes in construction and operating cost and on the Production Profile</t>
   </si>
   <si>
+    <t>Updated Feasibility Study including an update of the Project Economic Model and, if necessary, of the Environmental Impact Study;
+  Aknowlegment receipt from the General Secretary of the Prime Minister and from the Ministry of Industry, Mines and Technological Development, of the notification of satisfaction of the Condition Precedent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The State shall have no obligation to present  the Enabling Law to the Parliament  if this condition is not satisfied at the date for compliance </t>
+  </si>
+  <si>
+    <t>File the updated Feasibility Study with the Ministry of Mines (section 47 of the Mining Code)</t>
+  </si>
+  <si>
     <t>CAM IRON CEO (CEO)/ Country Manager (CM)</t>
+  </si>
+  <si>
+    <t>Notification of such update to be made to i) the General Secretary Office of the Prime Minister and to ii) the Ministry of Industry, Mines and Technological Development, with copy to i) The State Project Committee and to ii) Patton Boggs LLP in accordance with article 64 of the Convention.</t>
   </si>
   <si>
     <t>The Convention may be terminated and any right arising from the Convention may be revoked</t>
@@ -563,16 +563,8 @@
   <numFmts count="1">
     <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="8">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -601,6 +593,13 @@
     </font>
     <font>
       <b/>
+      <vertAlign val="superscript"/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
       <sz val="8"/>
       <color indexed="81"/>
       <name val="Tahoma"/>
@@ -610,13 +609,6 @@
       <sz val="8"/>
       <color indexed="81"/>
       <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <vertAlign val="superscript"/>
-      <sz val="10"/>
-      <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
@@ -637,13 +629,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0"/>
+        <fgColor theme="2" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="2" tint="-0.249977111117893"/>
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -668,10 +660,8 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thick">
-        <color theme="0" tint="-0.499984740745262"/>
-      </left>
-      <right style="thick">
+      <left/>
+      <right style="medium">
         <color theme="0" tint="-0.499984740745262"/>
       </right>
       <top style="medium">
@@ -681,7 +671,22 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="medium">
+        <color theme="0" tint="-0.499984740745262"/>
+      </left>
+      <right style="thick">
+        <color theme="0" tint="-0.499984740745262"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color theme="0" tint="-0.499984740745262"/>
+      </left>
       <right style="thick">
         <color theme="0" tint="-0.499984740745262"/>
       </right>
@@ -703,105 +708,8 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thick">
-        <color theme="0" tint="-0.499984740745262"/>
-      </left>
-      <right style="thick">
-        <color theme="0" tint="-0.499984740745262"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="thick">
-        <color theme="0" tint="-0.499984740745262"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color theme="0" tint="-0.499984740745262"/>
-      </left>
-      <right style="thick">
-        <color theme="0" tint="-0.499984740745262"/>
-      </right>
-      <top style="medium">
-        <color theme="0" tint="-0.499984740745262"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color theme="0" tint="-0.499984740745262"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thick">
-        <color theme="0" tint="-0.499984740745262"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color theme="0" tint="-0.499984740745262"/>
-      </left>
-      <right style="thick">
-        <color theme="0" tint="-0.499984740745262"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color theme="0" tint="-0.499984740745262"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
         <color theme="0" tint="-0.499984740745262"/>
       </right>
       <top style="medium">
@@ -812,26 +720,182 @@
     </border>
     <border>
       <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="0" tint="-0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color theme="0" tint="-0.499984740745262"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color theme="0" tint="-0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
         <color theme="0" tint="-0.499984740745262"/>
       </left>
       <right style="thick">
         <color theme="0" tint="-0.499984740745262"/>
       </right>
+      <top/>
+      <bottom style="medium">
+        <color theme="0" tint="-0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color theme="0" tint="-0.499984740745262"/>
+      </left>
+      <right style="thick">
+        <color theme="0" tint="-0.499984740745262"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color theme="0" tint="-0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color theme="0" tint="-0.499984740745262"/>
+      </left>
+      <right style="thick">
+        <color theme="0" tint="-0.499984740745262"/>
+      </right>
       <top style="medium">
+        <color theme="0" tint="-0.499984740745262"/>
+      </top>
+      <bottom style="medium">
+        <color theme="0" tint="-0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color theme="0" tint="-0.499984740745262"/>
+      </right>
+      <top style="medium">
+        <color theme="0" tint="-0.499984740745262"/>
+      </top>
+      <bottom style="medium">
+        <color theme="0" tint="-0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color theme="0" tint="-0.499984740745262"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="0" tint="-0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
         <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color theme="0" tint="-0.499984740745262"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right style="medium">
+        <color theme="0" tint="-0.499984740745262"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="0" tint="-0.499984740745262"/>
+      </left>
+      <right style="thick">
+        <color theme="0" tint="-0.499984740745262"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color theme="0" tint="-0.499984740745262"/>
+      </left>
+      <right style="thick">
+        <color theme="0" tint="-0.499984740745262"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color theme="0" tint="-0.499984740745262"/>
+      </left>
+      <right style="thick">
+        <color theme="0" tint="-0.499984740745262"/>
+      </right>
+      <top style="medium">
+        <color theme="0" tint="-0.499984740745262"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color theme="0" tint="-0.499984740745262"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color theme="0" tint="-0.499984740745262"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color theme="0" tint="-0.499984740745262"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="0" tint="-0.499984740745262"/>
-      </bottom>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color theme="0" tint="-0.499984740745262"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -839,45 +903,6 @@
       <right style="medium">
         <color theme="0" tint="-0.499984740745262"/>
       </right>
-      <top/>
-      <bottom style="medium">
-        <color theme="0" tint="-0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color theme="0" tint="-0.499984740745262"/>
-      </left>
-      <right style="thick">
-        <color theme="0" tint="-0.499984740745262"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color theme="0" tint="-0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color theme="0" tint="-0.499984740745262"/>
-      </left>
-      <right style="thick">
-        <color theme="0" tint="-0.499984740745262"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color theme="0" tint="-0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color theme="0" tint="-0.499984740745262"/>
-      </left>
-      <right style="thick">
-        <color theme="0" tint="-0.499984740745262"/>
-      </right>
       <top style="medium">
         <color theme="0" tint="-0.499984740745262"/>
       </top>
@@ -887,25 +912,16 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="thick">
+        <color theme="0" tint="-0.499984740745262"/>
+      </left>
       <right style="thick">
         <color theme="0" tint="-0.499984740745262"/>
       </right>
       <top style="medium">
         <color theme="0" tint="-0.499984740745262"/>
       </top>
-      <bottom style="medium">
-        <color theme="0" tint="-0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color theme="0" tint="-0.499984740745262"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="medium">
+      <bottom style="thick">
         <color theme="0" tint="-0.499984740745262"/>
       </bottom>
       <diagonal/>
@@ -915,76 +931,6 @@
         <color indexed="64"/>
       </left>
       <right/>
-      <top style="medium">
-        <color theme="0" tint="-0.499984740745262"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color theme="0" tint="-0.499984740745262"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color theme="0" tint="-0.499984740745262"/>
-      </left>
-      <right style="thick">
-        <color theme="0" tint="-0.499984740745262"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color theme="0" tint="-0.499984740745262"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color theme="0" tint="-0.499984740745262"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color theme="0" tint="-0.499984740745262"/>
-      </right>
-      <top style="medium">
-        <color theme="0" tint="-0.499984740745262"/>
-      </top>
-      <bottom style="medium">
-        <color theme="0" tint="-0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color theme="0" tint="-0.499984740745262"/>
-      </left>
-      <right style="thick">
-        <color theme="0" tint="-0.499984740745262"/>
-      </right>
-      <top style="medium">
-        <color theme="0" tint="-0.499984740745262"/>
-      </top>
-      <bottom style="thick">
-        <color theme="0" tint="-0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color theme="0" tint="-0.499984740745262"/>
-      </right>
       <top/>
       <bottom style="medium">
         <color indexed="64"/>
@@ -992,10 +938,8 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color theme="0" tint="-0.499984740745262"/>
-      </left>
-      <right style="thick">
+      <left/>
+      <right style="medium">
         <color theme="0" tint="-0.499984740745262"/>
       </right>
       <top/>
@@ -1004,170 +948,194 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color theme="0" tint="-0.499984740745262"/>
+      </left>
+      <right style="thick">
+        <color theme="0" tint="-0.499984740745262"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color theme="0" tint="-0.499984740745262"/>
+      </left>
+      <right style="thick">
+        <color theme="0" tint="-0.499984740745262"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color theme="0" tint="-0.499984740745262"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color theme="0" tint="-0.499984740745262"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="44" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="44" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="44" fontId="2" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="1" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="1" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="1" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="2" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="1" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="1" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="1" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="1" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="44" fontId="2" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="44" fontId="2" fillId="3" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="3" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="3" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="3" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1176,96 +1144,8 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>866775</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>1085850</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="AutoShape 41"/>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeAspect="1" noChangeArrowheads="1" noTextEdit="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="15592425" cy="1733550"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525">
-          <a:noFill/>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>866775</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>1085850</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="AutoShape 41"/>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeAspect="1" noChangeArrowheads="1" noTextEdit="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="15592425" cy="1733550"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525">
-          <a:noFill/>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1553,356 +1433,192 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O109"/>
+  <dimension ref="A3:M9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="15.85546875" style="10" customWidth="1"/>
-    <col min="2" max="4" width="24.140625" style="10" customWidth="1"/>
-    <col min="5" max="5" width="30.5703125" style="10" customWidth="1"/>
-    <col min="6" max="6" width="37.140625" style="10" customWidth="1"/>
-    <col min="7" max="7" width="20.140625" style="10" customWidth="1"/>
-    <col min="8" max="8" width="16.28515625" style="10" customWidth="1"/>
-    <col min="9" max="10" width="16.140625" style="10" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="10" customWidth="1"/>
-    <col min="12" max="12" width="12.85546875" style="10" customWidth="1"/>
-    <col min="13" max="13" width="19.85546875" style="10" customWidth="1"/>
-    <col min="14" max="14" width="14" style="10" customWidth="1"/>
-    <col min="15" max="15" width="61.140625" style="10" customWidth="1"/>
-    <col min="16" max="16" width="24.42578125" style="10" customWidth="1"/>
-    <col min="17" max="17" width="17.7109375" style="10" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="10"/>
+    <col min="1" max="1" width="28.5703125" customWidth="1"/>
+    <col min="2" max="2" width="32.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="2" customFormat="1">
-      <c r="A1" s="1"/>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-      <c r="N1" s="18"/>
-      <c r="O1" s="18"/>
+    <row r="3" spans="1:13" ht="15.75" thickBot="1"/>
+    <row r="4" spans="1:13" ht="51.75" thickBot="1">
+      <c r="A4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="I4" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="J4" s="7"/>
+      <c r="K4" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="L4" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="M4" s="8" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="2" spans="1:15" s="4" customFormat="1">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
-      <c r="N2" s="19"/>
-      <c r="O2" s="19"/>
+    <row r="5" spans="1:13" ht="15.75" thickBot="1">
+      <c r="A5" s="9"/>
+      <c r="B5" s="10"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="12"/>
+      <c r="I5" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="J5" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="K5" s="13"/>
+      <c r="L5" s="16"/>
+      <c r="M5" s="16"/>
     </row>
-    <row r="3" spans="1:15" s="5" customFormat="1" ht="77.25" customHeight="1" thickBot="1">
-      <c r="N3" s="20"/>
-      <c r="O3" s="20"/>
+    <row r="6" spans="1:13" ht="225">
+      <c r="A6" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" s="22"/>
+      <c r="G6" s="20"/>
+      <c r="H6" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="I6" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="J6" s="25"/>
+      <c r="K6" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="L6" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="M6" s="27"/>
     </row>
-    <row r="4" spans="1:15" s="10" customFormat="1" ht="33" customHeight="1" thickBot="1">
-      <c r="A4" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" s="23" t="s">
-        <v>3</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E4" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="F4" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="G4" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="H4" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="I4" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="J4" s="7"/>
-      <c r="K4" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="L4" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="M4" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="N4" s="25"/>
-      <c r="O4" s="26"/>
+    <row r="7" spans="1:13" ht="15.75" thickBot="1">
+      <c r="A7" s="28"/>
+      <c r="B7" s="18"/>
+      <c r="C7" s="19"/>
+      <c r="D7" s="20"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="22"/>
+      <c r="G7" s="20"/>
+      <c r="H7" s="29"/>
+      <c r="I7" s="20"/>
+      <c r="J7" s="25"/>
+      <c r="K7" s="30"/>
+      <c r="L7" s="31"/>
+      <c r="M7" s="31"/>
     </row>
-    <row r="5" spans="1:15" s="10" customFormat="1" ht="18" customHeight="1" thickBot="1">
-      <c r="A5" s="27"/>
-      <c r="B5" s="28"/>
-      <c r="C5" s="29"/>
-      <c r="D5" s="30"/>
-      <c r="E5" s="30"/>
-      <c r="F5" s="30"/>
-      <c r="G5" s="31"/>
-      <c r="H5" s="30"/>
-      <c r="I5" s="32" t="s">
-        <v>12</v>
-      </c>
-      <c r="J5" s="33" t="s">
-        <v>13</v>
-      </c>
-      <c r="K5" s="31"/>
-      <c r="L5" s="34"/>
-      <c r="M5" s="34"/>
-      <c r="N5" s="25"/>
-      <c r="O5" s="26"/>
+    <row r="8" spans="1:13" ht="165.75" thickBot="1">
+      <c r="A8" s="28"/>
+      <c r="B8" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="19"/>
+      <c r="D8" s="20"/>
+      <c r="E8" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="F8" s="34"/>
+      <c r="G8" s="20"/>
+      <c r="H8" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="I8" s="20"/>
+      <c r="J8" s="25"/>
+      <c r="K8" s="30"/>
+      <c r="L8" s="31"/>
+      <c r="M8" s="31"/>
     </row>
-    <row r="6" spans="1:15" s="10" customFormat="1" ht="45" customHeight="1">
-      <c r="A6" s="35" t="s">
-        <v>21</v>
-      </c>
-      <c r="B6" s="36" t="s">
-        <v>1</v>
-      </c>
-      <c r="C6" s="37" t="s">
-        <v>22</v>
-      </c>
-      <c r="D6" s="13" t="s">
+    <row r="9" spans="1:13" ht="409.6" thickBot="1">
+      <c r="A9" s="36"/>
+      <c r="B9" s="37" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="38"/>
+      <c r="D9" s="39"/>
+      <c r="E9" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="F9" s="40"/>
+      <c r="G9" s="39"/>
+      <c r="H9" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="E6" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="F6" s="38"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="39" t="s">
-        <v>15</v>
-      </c>
-      <c r="I6" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="J6" s="12"/>
-      <c r="K6" s="40" t="s">
-        <v>16</v>
-      </c>
-      <c r="L6" s="41" t="s">
-        <v>17</v>
-      </c>
-      <c r="M6" s="41"/>
-      <c r="N6" s="25"/>
-      <c r="O6" s="42"/>
+      <c r="I9" s="39"/>
+      <c r="J9" s="42"/>
+      <c r="K9" s="43"/>
+      <c r="L9" s="44" t="s">
+        <v>26</v>
+      </c>
+      <c r="M9" s="44"/>
     </row>
-    <row r="7" spans="1:15" s="10" customFormat="1" ht="45" customHeight="1" thickBot="1">
-      <c r="A7" s="43"/>
-      <c r="B7" s="36"/>
-      <c r="C7" s="37"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="38"/>
-      <c r="G7" s="13"/>
-      <c r="H7" s="44"/>
-      <c r="I7" s="13"/>
-      <c r="J7" s="12"/>
-      <c r="K7" s="45"/>
-      <c r="L7" s="46"/>
-      <c r="M7" s="46"/>
-      <c r="N7" s="25"/>
-      <c r="O7" s="42"/>
-    </row>
-    <row r="8" spans="1:15" s="10" customFormat="1" ht="107.25" customHeight="1" thickBot="1">
-      <c r="A8" s="43"/>
-      <c r="B8" s="47" t="s">
-        <v>2</v>
-      </c>
-      <c r="C8" s="37"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="48" t="s">
-        <v>25</v>
-      </c>
-      <c r="F8" s="49"/>
-      <c r="G8" s="13"/>
-      <c r="H8" s="50" t="s">
-        <v>15</v>
-      </c>
-      <c r="I8" s="13"/>
-      <c r="J8" s="12"/>
-      <c r="K8" s="45"/>
-      <c r="L8" s="46"/>
-      <c r="M8" s="46"/>
-      <c r="N8" s="25"/>
-      <c r="O8" s="42"/>
-    </row>
-    <row r="9" spans="1:15" s="10" customFormat="1" ht="52.5" customHeight="1" thickBot="1">
-      <c r="A9" s="51"/>
-      <c r="B9" s="52" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9" s="53"/>
-      <c r="D9" s="16"/>
-      <c r="E9" s="48" t="s">
-        <v>25</v>
-      </c>
-      <c r="F9" s="54"/>
-      <c r="G9" s="16"/>
-      <c r="H9" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="I9" s="16"/>
-      <c r="J9" s="15"/>
-      <c r="K9" s="55"/>
-      <c r="L9" s="56" t="s">
-        <v>26</v>
-      </c>
-      <c r="M9" s="56"/>
-      <c r="N9" s="25"/>
-      <c r="O9" s="42"/>
-    </row>
-    <row r="10" spans="1:15" s="10" customFormat="1"/>
-    <row r="11" spans="1:15" s="10" customFormat="1" ht="46.5" customHeight="1"/>
-    <row r="12" spans="1:15" s="10" customFormat="1"/>
-    <row r="13" spans="1:15" s="10" customFormat="1"/>
-    <row r="14" spans="1:15" s="10" customFormat="1"/>
-    <row r="15" spans="1:15" s="10" customFormat="1" ht="31.5" customHeight="1"/>
-    <row r="16" spans="1:15" s="10" customFormat="1"/>
-    <row r="17" s="10" customFormat="1"/>
-    <row r="18" s="10" customFormat="1"/>
-    <row r="19" s="10" customFormat="1"/>
-    <row r="20" s="10" customFormat="1" ht="46.5" customHeight="1"/>
-    <row r="21" s="10" customFormat="1"/>
-    <row r="22" s="10" customFormat="1"/>
-    <row r="23" s="10" customFormat="1"/>
-    <row r="24" s="10" customFormat="1" ht="76.5" customHeight="1"/>
-    <row r="25" s="10" customFormat="1"/>
-    <row r="26" s="10" customFormat="1"/>
-    <row r="27" s="10" customFormat="1"/>
-    <row r="28" s="10" customFormat="1" ht="16.5" customHeight="1"/>
-    <row r="29" s="10" customFormat="1"/>
-    <row r="30" s="10" customFormat="1" ht="31.5" customHeight="1"/>
-    <row r="31" s="10" customFormat="1"/>
-    <row r="32" s="10" customFormat="1"/>
-    <row r="33" s="10" customFormat="1"/>
-    <row r="34" s="10" customFormat="1"/>
-    <row r="35" s="10" customFormat="1" ht="46.5" customHeight="1"/>
-    <row r="36" s="10" customFormat="1"/>
-    <row r="37" s="10" customFormat="1"/>
-    <row r="38" s="10" customFormat="1" ht="31.5" customHeight="1"/>
-    <row r="39" s="10" customFormat="1"/>
-    <row r="40" s="10" customFormat="1"/>
-    <row r="41" s="10" customFormat="1"/>
-    <row r="42" s="10" customFormat="1"/>
-    <row r="43" s="10" customFormat="1" ht="46.5" customHeight="1"/>
-    <row r="44" s="10" customFormat="1"/>
-    <row r="45" s="10" customFormat="1" ht="61.5" customHeight="1"/>
-    <row r="46" s="10" customFormat="1"/>
-    <row r="47" s="10" customFormat="1"/>
-    <row r="48" s="10" customFormat="1"/>
-    <row r="49" s="10" customFormat="1" ht="16.5" customHeight="1"/>
-    <row r="50" s="10" customFormat="1"/>
-    <row r="51" s="10" customFormat="1" ht="46.5" customHeight="1"/>
-    <row r="52" s="10" customFormat="1"/>
-    <row r="53" s="10" customFormat="1"/>
-    <row r="54" s="10" customFormat="1" ht="16.5" customHeight="1"/>
-    <row r="55" s="10" customFormat="1"/>
-    <row r="56" s="10" customFormat="1"/>
-    <row r="57" s="10" customFormat="1"/>
-    <row r="58" s="10" customFormat="1" ht="31.5" customHeight="1"/>
-    <row r="59" s="10" customFormat="1"/>
-    <row r="60" s="10" customFormat="1"/>
-    <row r="61" s="10" customFormat="1"/>
-    <row r="62" s="10" customFormat="1" ht="31.5" customHeight="1"/>
-    <row r="63" s="10" customFormat="1"/>
-    <row r="64" s="10" customFormat="1"/>
-    <row r="65" s="10" customFormat="1"/>
-    <row r="66" s="10" customFormat="1" ht="31.5" customHeight="1"/>
-    <row r="67" s="10" customFormat="1"/>
-    <row r="68" s="10" customFormat="1"/>
-    <row r="69" s="10" customFormat="1"/>
-    <row r="70" s="10" customFormat="1" ht="31.5" customHeight="1"/>
-    <row r="71" s="10" customFormat="1"/>
-    <row r="72" s="10" customFormat="1"/>
-    <row r="73" s="10" customFormat="1"/>
-    <row r="74" s="10" customFormat="1" ht="16.5" customHeight="1"/>
-    <row r="75" s="10" customFormat="1"/>
-    <row r="76" s="10" customFormat="1"/>
-    <row r="77" s="10" customFormat="1"/>
-    <row r="78" s="10" customFormat="1"/>
-    <row r="79" s="10" customFormat="1" ht="16.5" customHeight="1"/>
-    <row r="80" s="10" customFormat="1"/>
-    <row r="81" s="10" customFormat="1"/>
-    <row r="82" s="10" customFormat="1"/>
-    <row r="83" s="10" customFormat="1"/>
-    <row r="84" s="10" customFormat="1" ht="31.5" customHeight="1"/>
-    <row r="85" s="10" customFormat="1"/>
-    <row r="86" s="10" customFormat="1"/>
-    <row r="87" s="10" customFormat="1"/>
-    <row r="88" s="10" customFormat="1"/>
-    <row r="89" s="10" customFormat="1"/>
-    <row r="90" s="10" customFormat="1" ht="31.5" customHeight="1"/>
-    <row r="91" s="10" customFormat="1"/>
-    <row r="92" s="10" customFormat="1" ht="31.5" customHeight="1"/>
-    <row r="93" s="10" customFormat="1"/>
-    <row r="94" s="10" customFormat="1" ht="31.5" customHeight="1"/>
-    <row r="95" s="10" customFormat="1"/>
-    <row r="96" s="10" customFormat="1" ht="16.5" customHeight="1"/>
-    <row r="97" s="10" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="98" s="10" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="99" s="10" customFormat="1" ht="17.25" customHeight="1"/>
-    <row r="100" s="10" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="101" s="10" customFormat="1" ht="20.25" customHeight="1"/>
-    <row r="102" s="10" customFormat="1" ht="18.75" customHeight="1"/>
-    <row r="103" s="10" customFormat="1" ht="36" customHeight="1"/>
-    <row r="104" s="10" customFormat="1" ht="28.5" customHeight="1"/>
-    <row r="105" s="10" customFormat="1" ht="25.5" customHeight="1"/>
-    <row r="106" s="10" customFormat="1" ht="27.75" customHeight="1"/>
-    <row r="107" s="10" customFormat="1" ht="18" customHeight="1"/>
-    <row r="108" s="10" customFormat="1" ht="22.5" customHeight="1"/>
-    <row r="109" s="10" customFormat="1" ht="76.5" customHeight="1"/>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="I6:I9"/>
     <mergeCell ref="J6:J9"/>
     <mergeCell ref="K6:K9"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="K4:K5"/>
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="C6:C9"/>
     <mergeCell ref="D6:D9"/>
     <mergeCell ref="F6:F7"/>
     <mergeCell ref="G6:G9"/>
-    <mergeCell ref="K4:K5"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="I6:I9"/>
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="C4:C5"/>
     <mergeCell ref="D4:D5"/>
     <mergeCell ref="E4:E5"/>
     <mergeCell ref="F4:F5"/>
     <mergeCell ref="G4:G5"/>
-    <mergeCell ref="H4:H5"/>
-    <mergeCell ref="I4:J4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
